--- a/Reports/IMPEXP/RetentionForCompany/Send_/Send_.xlsx
+++ b/Reports/IMPEXP/RetentionForCompany/Send_/Send_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Width</t>
   </si>
@@ -55,49 +55,25 @@
     <t>$t1['Nazvanie_uchastka']</t>
   </si>
   <si>
-    <t>$t1['name_street'].', д.'.$t1['house'].', кв.'.$t1['room']</t>
-  </si>
-  <si>
-    <t>$t1['fam']</t>
-  </si>
-  <si>
-    <t>$t1['im']</t>
-  </si>
-  <si>
-    <t>$t1['ot']</t>
-  </si>
-  <si>
     <t>tabnum</t>
   </si>
   <si>
-    <t>fam</t>
-  </si>
-  <si>
-    <t>im</t>
-  </si>
-  <si>
-    <t>otc</t>
-  </si>
-  <si>
     <t>uch</t>
   </si>
   <si>
     <t>naz</t>
   </si>
   <si>
-    <t>zeu</t>
-  </si>
-  <si>
-    <t>adr</t>
-  </si>
-  <si>
     <t>sum</t>
   </si>
   <si>
-    <t>$t1['id_JEU']</t>
-  </si>
-  <si>
     <t>$t1['Polnoe_nazvanie_organizacii']</t>
+  </si>
+  <si>
+    <t>$t1['fam']." ".$t1['im']." ".$t1['ot']</t>
+  </si>
+  <si>
+    <t>fio</t>
   </si>
 </sst>
 </file>
@@ -157,14 +133,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -174,16 +147,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -484,135 +451,108 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="2" customWidth="1"/>
-    <col min="2" max="4" width="19.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="N2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="8">
         <v>0</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="6">
-        <v>1</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="10">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="R2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="10">
-        <v>0</v>
+    <row r="3" spans="1:16">
+      <c r="G3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="H3" s="11"/>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="L4" s="12"/>
+    <row r="4" spans="1:16">
+      <c r="H4" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/Reports/IMPEXP/RetentionForCompany/Send_/Send_.xlsx
+++ b/Reports/IMPEXP/RetentionForCompany/Send_/Send_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Width</t>
   </si>
@@ -61,13 +61,7 @@
     <t>uch</t>
   </si>
   <si>
-    <t>naz</t>
-  </si>
-  <si>
     <t>sum</t>
-  </si>
-  <si>
-    <t>$t1['Polnoe_nazvanie_organizacii']</t>
   </si>
   <si>
     <t>$t1['fam']." ".$t1['im']." ".$t1['ot']</t>
@@ -451,10 +445,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -462,97 +456,90 @@
     <col min="1" max="1" width="9.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="14.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5">
-        <v>1</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="M2" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="N2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="8">
+      <c r="O2" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="G3" s="1" t="s">
+    <row r="3" spans="1:15">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="H4" s="9"/>
+    <row r="4" spans="1:15">
+      <c r="G4" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
